--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1649871.720379618</v>
+        <v>-1596458.307772128</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10808670.02264593</v>
+        <v>10803427.34575724</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>259.3010240504358</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>94.06821914862122</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.45152031340486</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>140.8415206342685</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.00377606262818</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.5122002751354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>205.0154559750283</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>38.03049614436625</v>
       </c>
       <c r="W7" t="n">
-        <v>25.68008452176533</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1139,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>53.40840756313693</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>34.7831602542068</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>192.6885925717419</v>
+        <v>188.9372674261659</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.52750649357969</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1534,10 +1534,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F13" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>35.51678257079443</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2008,16 +2008,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>43.70143389869827</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>14.14416275345333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>14.14416275345333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,16 +2956,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3436,13 +3436,13 @@
         <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856827</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432362</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3569,7 +3569,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245964</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3676,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413108</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C41" t="n">
         <v>417.5253377496635</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245964</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,7 +3907,7 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>778.0069355296006</v>
       </c>
       <c r="C2" t="n">
-        <v>449.961607123969</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>418.0922263388176</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>418.0922263388176</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>418.0922263388176</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4340,40 +4340,40 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1683.596035824453</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1463.528808697492</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1204.306506014508</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1204.306506014508</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1204.306506014508</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1204.306506014508</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>1204.306506014508</v>
       </c>
     </row>
     <row r="3">
@@ -4404,22 +4404,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4087263891149</v>
+        <v>372.3833729168607</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4489,49 +4489,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1554.91926782358</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>1037.013416988327</v>
       </c>
       <c r="X4" t="n">
-        <v>466.2711264523757</v>
+        <v>791.6216623217397</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4087263891149</v>
+        <v>564.2019916358479</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.2911052642175</v>
+        <v>755.2326055459631</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>721.1305367697905</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>689.2611559846391</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>659.5268151833384</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>452.4404960166431</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.04266463990692</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.04266463990692</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704693</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1112.375769149671</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1189.145706210989</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1189.145706210989</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1189.145706210989</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210989</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640695</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.13969859929</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352347</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536183</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409222</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1968.352359726239</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1605.735409660065</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1200.879955071099</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>781.7374916504094</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>777.4917719904669</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583397</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.341159094982</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415353</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.130455568489</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846506</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083446</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704693</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.68954842750452</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>1027.743079823422</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.231555524841</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.4547363200022</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588821</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381029</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.5053801183834</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>957.1223243621533</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.244331563676</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.4863278144132</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761694</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1879988019971</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923716</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704693</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704693</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.3843298381825</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>743.5942116061436</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1203.078078787057</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.006131170483</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488014</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352347</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2509.875942057718</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2350.634573355715</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2104.75512693417</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2104.75512693417</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>2066.340484364103</v>
       </c>
       <c r="W7" t="n">
-        <v>679.3168054708626</v>
+        <v>1794.314079950395</v>
       </c>
       <c r="X7" t="n">
-        <v>433.9250508042751</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.5053801183834</v>
+        <v>1321.502654597916</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.3238179760524</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2217491998797</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>798.2938782624194</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1662.048924773138</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1402.826622090155</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1402.826622090155</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>997.971167501188</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>982.8691081209028</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>978.6233884609602</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1481.130666794131</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U10" t="n">
-        <v>1202.697666047236</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V10" t="n">
-        <v>915.7421579176664</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W10" t="n">
-        <v>643.715753503958</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>398.3239988373705</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1366.524146594472</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>928.3816737778957</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>492.4718889523402</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>480.8279429992294</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>480.8279429992294</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43011162249327</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43011162249327</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963328</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>79.01332224963328</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>79.01332224963328</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>79.01332224963328</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>451.1236612581922</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>1428.913524097404</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2406.703386936616</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3235.013261770012</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3781.512047728607</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481664</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.014238665501</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3646.947011538539</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3387.724708855556</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3025.107758789382</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2620.252304200416</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2201.109840779727</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1792.82371707938</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409261</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775684</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241216</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510753</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672369</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334208</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963328</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>79.01332224963328</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>79.01332224963328</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>79.01332224963328</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>79.01332224963328</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>79.01332224963328</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>79.01332224963328</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>264.6182005228287</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634102</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569394</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025884</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414684</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206892</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>767.089338372617</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>594.527626855842</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>428.6496340573647</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>258.8916303081019</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>244.6045972238056</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>79.01332224963328</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>79.01332224963328</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963328</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143232</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854587</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534198</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2515.013742155801</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.134295734256</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>1990.701294987362</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.745786857792</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.719382444084</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1186.327627777496</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>958.9079570916042</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5279,49 +5279,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1208027766299</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>392.387602420574</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>226.7963274464017</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5470,16 +5470,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,52 +5513,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937674</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769924</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>451.8971520785151</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5680,43 +5680,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176952</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127546</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6698,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030279</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6877,28 +6877,28 @@
         <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886287</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030275</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666409</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412733</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799771</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832277</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7172,28 +7172,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581785</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7248,25 +7248,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
         <v>602.8283265716796</v>
@@ -7321,10 +7321,10 @@
         <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581785</v>
@@ -7348,34 +7348,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976694</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7403,58 +7403,58 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581783</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239091</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581783</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,7 +7546,7 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
         <v>756.1866229080662</v>
@@ -7558,13 +7558,13 @@
         <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7591,13 +7591,13 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
@@ -7640,37 +7640,37 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581783</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239091</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387605</v>
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581783</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7801,16 +7801,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7825,25 +7825,25 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102884</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380868</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,31 +8289,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.49579817779613</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>301.105916482355</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>375.8690293015746</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204159</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8942,13 +8942,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>1082.305540278395</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>833.0630236930783</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.80779418622777</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>69.3638347645965</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>417.9094908997081</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F13" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>124.3589898130718</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>73.62918697961808</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>124.3589898130759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>876994.8899193133</v>
+        <v>719901.1119999444</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>950522.1029989173</v>
+        <v>954799.1511765149</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>950522.1029989173</v>
+        <v>955510.7038219842</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>787205.2144536658</v>
+        <v>948878.5185997867</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>948878.5185997869</v>
+        <v>948878.5185997867</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>948878.5185997869</v>
+        <v>948878.5185997867</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>948878.5185997866</v>
+        <v>948878.5185997867</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>965135.5561676351</v>
+        <v>964210.8586739488</v>
       </c>
     </row>
     <row r="14">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246271</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106374</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880864999</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658721</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338248</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143483</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962801</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713882</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157451.2936695341</v>
+        <v>106214.747262108</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>137985.3773911514</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>22967.16673664866</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26448,16 @@
         <v>33026.43656683595</v>
       </c>
       <c r="M4" t="n">
-        <v>33026.43656683595</v>
+        <v>42419.67665353612</v>
       </c>
       <c r="N4" t="n">
+        <v>42419.67665353609</v>
+      </c>
+      <c r="O4" t="n">
+        <v>42419.67665353609</v>
+      </c>
+      <c r="P4" t="n">
         <v>42419.67665353611</v>
-      </c>
-      <c r="O4" t="n">
-        <v>42419.67665353615</v>
-      </c>
-      <c r="P4" t="n">
-        <v>42419.67665353612</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295566</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972129</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-359067.3824664663</v>
+        <v>-308160.2946176102</v>
       </c>
       <c r="C6" t="n">
-        <v>-240857.1745976845</v>
+        <v>-277457.7919865698</v>
       </c>
       <c r="D6" t="n">
-        <v>-240857.1745976845</v>
+        <v>-215746.1279948413</v>
       </c>
       <c r="E6" t="n">
-        <v>-251227.3797328698</v>
+        <v>-287780.6509164276</v>
       </c>
       <c r="F6" t="n">
-        <v>-188665.0467125824</v>
+        <v>-105425.5416953778</v>
       </c>
       <c r="G6" t="n">
-        <v>-105402.3173559952</v>
+        <v>-105425.5416953778</v>
       </c>
       <c r="H6" t="n">
-        <v>-105402.3173559952</v>
+        <v>-105425.5416953778</v>
       </c>
       <c r="I6" t="n">
-        <v>-105402.3173559952</v>
+        <v>-105425.5416953778</v>
       </c>
       <c r="J6" t="n">
-        <v>-216416.7827009854</v>
+        <v>-216440.007040368</v>
       </c>
       <c r="K6" t="n">
-        <v>-105402.3173559952</v>
+        <v>-159093.8687587603</v>
       </c>
       <c r="L6" t="n">
-        <v>-125098.1633760945</v>
+        <v>-133878.3370665315</v>
       </c>
       <c r="M6" t="n">
-        <v>-252503.8197013767</v>
+        <v>-255512.9921174777</v>
       </c>
       <c r="N6" t="n">
-        <v>-174738.0920367646</v>
+        <v>-117935.2913796258</v>
       </c>
       <c r="O6" t="n">
-        <v>-117935.2913796259</v>
+        <v>-117935.2913796258</v>
       </c>
       <c r="P6" t="n">
         <v>-117935.2913796258</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380866</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204159</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179823</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977029</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003117</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643293</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179823</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977029</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003117</v>
+        <v>552.0685893398656</v>
       </c>
       <c r="N4" t="n">
-        <v>231.917267827307</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179823</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977029</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003117</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643293</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>174.4600240379751</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>228.5078397281198</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>16.80743438071477</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.1416979164046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.5243745049233</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>218.573299319856</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>246.0554569039076</v>
       </c>
       <c r="W7" t="n">
-        <v>243.626055847806</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,67 +27859,67 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
+        <v>370.1803477317474</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H8" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>183.083394601485</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>358.9907805655117</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>50.73205938558741</v>
+        <v>54.48338453116335</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.484950034982556e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874674</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874788</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
         <v>16.23571033874738</v>
@@ -30526,7 +30526,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874674</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34708,19 +34708,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,10 +34772,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102884</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380868</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.49579817779613</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>301.105916482355</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>375.8690293015746</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204159</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645625</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>1082.305540278395</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>833.0630236930783</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37242,7 +37242,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
         <v>186.127402120901</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37713,10 +37713,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
         <v>186.1274021209006</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
